--- a/data/trans_orig/IP37-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP37-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11CB8C63-7A9F-474E-B91E-CD91710818EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D49F33D1-1F73-46A6-B612-899A02854A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{35CC3B52-E95F-40F5-94B1-AA4866ABD1E6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{123EF220-CF8B-4EB4-9CC9-FB015BCAA434}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="288">
   <si>
     <t>Adultos según si han trabajado anteriormente en 2007 (Tasa respuesta: 44,11%)</t>
   </si>
@@ -86,55 +86,55 @@
     <t>68,26%</t>
   </si>
   <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
   </si>
   <si>
     <t>55,07%</t>
   </si>
   <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
   </si>
   <si>
     <t>61,31%</t>
   </si>
   <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
   </si>
   <si>
     <t>31,74%</t>
   </si>
   <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
   </si>
   <si>
     <t>44,93%</t>
   </si>
   <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
   </si>
   <si>
     <t>38,69%</t>
   </si>
   <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
   </si>
   <si>
     <t>100%</t>
@@ -146,55 +146,55 @@
     <t>61,35%</t>
   </si>
   <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
   </si>
   <si>
     <t>62,54%</t>
   </si>
   <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
   </si>
   <si>
     <t>61,91%</t>
   </si>
   <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
   </si>
   <si>
     <t>38,65%</t>
   </si>
   <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
   </si>
   <si>
     <t>37,46%</t>
   </si>
   <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
   </si>
   <si>
     <t>38,09%</t>
   </si>
   <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -203,541 +203,559 @@
     <t>68,44%</t>
   </si>
   <si>
-    <t>56,8%</t>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Adultos según si han trabajado anteriormente en 2012 (Tasa respuesta: 54,79%)</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>Adultos según si han trabajado anteriormente en 2016 (Tasa respuesta: 50,09%)</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
   </si>
   <si>
     <t>80,02%</t>
   </si>
   <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
   </si>
   <si>
     <t>19,98%</t>
   </si>
   <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Adultos según si han trabajado anteriormente en 2012 (Tasa respuesta: 54,79%)</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>Adultos según si han trabajado anteriormente en 2015 (Tasa respuesta: 50,09%)</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
   </si>
   <si>
     <t>79,91%</t>
   </si>
   <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
   </si>
   <si>
     <t>20,09%</t>
   </si>
   <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
+    <t>27,3%</t>
   </si>
   <si>
     <t>25,22%</t>
   </si>
   <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
   </si>
   <si>
     <t>Adultos según si han trabajado anteriormente en 2023 (Tasa respuesta: 3,91%)</t>
@@ -746,7 +764,7 @@
     <t>90,69%</t>
   </si>
   <si>
-    <t>47,24%</t>
+    <t>29,41%</t>
   </si>
   <si>
     <t>57,48%</t>
@@ -755,16 +773,13 @@
     <t>77,48%</t>
   </si>
   <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
+    <t>42,97%</t>
   </si>
   <si>
     <t>9,31%</t>
   </si>
   <si>
-    <t>52,76%</t>
+    <t>70,59%</t>
   </si>
   <si>
     <t>42,52%</t>
@@ -773,64 +788,61 @@
     <t>22,52%</t>
   </si>
   <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
+    <t>57,03%</t>
   </si>
   <si>
     <t>47,75%</t>
   </si>
   <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
   </si>
   <si>
     <t>29,22%</t>
   </si>
   <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
   </si>
   <si>
     <t>37,88%</t>
   </si>
   <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
   </si>
   <si>
     <t>52,25%</t>
   </si>
   <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
   </si>
   <si>
     <t>70,78%</t>
   </si>
   <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
   </si>
   <si>
     <t>62,12%</t>
   </si>
   <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
   </si>
   <si>
     <t>30,12%</t>
@@ -842,55 +854,55 @@
     <t>54,45%</t>
   </si>
   <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
   </si>
   <si>
     <t>31,78%</t>
   </si>
   <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
   </si>
   <si>
     <t>42,2%</t>
   </si>
   <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
   </si>
   <si>
     <t>45,55%</t>
   </si>
   <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
   </si>
   <si>
     <t>68,22%</t>
   </si>
   <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
   </si>
   <si>
     <t>57,8%</t>
   </si>
   <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67DC1DF0-3389-45BC-9263-915681450051}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E27B5F3-D599-475B-9876-7C76DA7C73B1}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1745,7 +1757,7 @@
         <v>389</v>
       </c>
       <c r="N10" s="7">
-        <v>259385</v>
+        <v>259386</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>40</v>
@@ -1847,7 +1859,7 @@
         <v>630</v>
       </c>
       <c r="N12" s="7">
-        <v>418992</v>
+        <v>418993</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>32</v>
@@ -2191,7 +2203,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD32CBC-CA1E-41B6-B341-618B896E6536}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C263CC-EC48-4CE1-9CD1-0558CECE05C7}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3092,7 +3104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F0A1E3-C3B1-4060-9650-AD548CA507B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62445BD9-16B1-49F9-AE7C-3DDAD7BD5C25}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3356,10 +3368,10 @@
         <v>169</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H7" s="7">
         <v>55</v>
@@ -3368,13 +3380,13 @@
         <v>35406</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M7" s="7">
         <v>104</v>
@@ -3383,13 +3395,13 @@
         <v>68505</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,13 +3416,13 @@
         <v>16053</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -3419,13 +3431,13 @@
         <v>11168</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M8" s="7">
         <v>38</v>
@@ -3434,13 +3446,13 @@
         <v>27221</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3508,13 +3520,13 @@
         <v>187918</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H10" s="7">
         <v>296</v>
@@ -3523,13 +3535,13 @@
         <v>194765</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M10" s="7">
         <v>561</v>
@@ -3538,13 +3550,13 @@
         <v>382684</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,13 +3571,13 @@
         <v>71101</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H11" s="7">
         <v>93</v>
@@ -3574,13 +3586,13 @@
         <v>62705</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M11" s="7">
         <v>193</v>
@@ -3589,13 +3601,13 @@
         <v>133805</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3663,13 +3675,13 @@
         <v>47459</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H13" s="7">
         <v>69</v>
@@ -3678,13 +3690,13 @@
         <v>46642</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>55</v>
+        <v>208</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M13" s="7">
         <v>137</v>
@@ -3693,13 +3705,13 @@
         <v>94100</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>191</v>
+        <v>58</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3714,13 +3726,13 @@
         <v>11213</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -3729,13 +3741,13 @@
         <v>11642</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>63</v>
+        <v>216</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M14" s="7">
         <v>32</v>
@@ -3744,13 +3756,13 @@
         <v>22856</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>200</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,13 +3830,13 @@
         <v>268476</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>152</v>
+        <v>223</v>
       </c>
       <c r="H16" s="7">
         <v>420</v>
@@ -3833,13 +3845,13 @@
         <v>276814</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="M16" s="7">
         <v>802</v>
@@ -3848,13 +3860,13 @@
         <v>545289</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,13 +3881,13 @@
         <v>98366</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>160</v>
+        <v>231</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H17" s="7">
         <v>124</v>
@@ -3884,13 +3896,13 @@
         <v>85515</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M17" s="7">
         <v>263</v>
@@ -3899,13 +3911,13 @@
         <v>183882</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,7 +3993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D02A4C1-5392-4ABB-A2FC-E21CF4E925E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93EA8761-018C-46C0-800A-5DEB2B43DEBA}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3998,7 +4010,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4242,10 +4254,10 @@
         <v>3427</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>91</v>
@@ -4257,7 +4269,7 @@
         <v>1435</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>93</v>
@@ -4272,13 +4284,13 @@
         <v>4862</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>239</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,13 +4305,13 @@
         <v>352</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>93</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -4308,7 +4320,7 @@
         <v>1061</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>93</v>
@@ -4323,13 +4335,13 @@
         <v>1413</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>244</v>
+        <v>93</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,13 +4409,13 @@
         <v>9759</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -4412,13 +4424,13 @@
         <v>6811</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -4427,13 +4439,13 @@
         <v>16570</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4448,13 +4460,13 @@
         <v>10678</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H11" s="7">
         <v>23</v>
@@ -4463,13 +4475,13 @@
         <v>16500</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M11" s="7">
         <v>38</v>
@@ -4478,13 +4490,13 @@
         <v>27178</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,7 +4577,7 @@
         <v>798</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>93</v>
@@ -4580,7 +4592,7 @@
         <v>798</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>93</v>
@@ -4614,7 +4626,7 @@
         <v>1850</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>93</v>
@@ -4629,7 +4641,7 @@
         <v>1850</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>93</v>
@@ -4701,13 +4713,13 @@
         <v>13186</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -4716,13 +4728,13 @@
         <v>9043</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -4731,13 +4743,13 @@
         <v>22230</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4752,13 +4764,13 @@
         <v>11030</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -4767,13 +4779,13 @@
         <v>19412</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M17" s="7">
         <v>44</v>
@@ -4782,13 +4794,13 @@
         <v>30441</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP37-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP37-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D49F33D1-1F73-46A6-B612-899A02854A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E6343AB-EDFF-4473-BEB1-36E3E45FD098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{123EF220-CF8B-4EB4-9CC9-FB015BCAA434}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{66F42AF8-8DEA-4A3C-AEE6-8A7680D8E61F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
   <si>
     <t>Adultos según si han trabajado anteriormente en 2007 (Tasa respuesta: 44,11%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,73 +68,67 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
   </si>
   <si>
     <t>31,74%</t>
   </si>
   <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
   </si>
   <si>
     <t>38,69%</t>
   </si>
   <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
   </si>
   <si>
     <t>100%</t>
@@ -143,169 +137,163 @@
     <t>Secundarios</t>
   </si>
   <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
     <t>61,35%</t>
   </si>
   <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
   </si>
   <si>
     <t>61,91%</t>
   </si>
   <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
   </si>
   <si>
     <t>38,65%</t>
   </si>
   <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
   </si>
   <si>
     <t>38,09%</t>
   </si>
   <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
     <t>68,44%</t>
   </si>
   <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
   </si>
   <si>
     <t>31,56%</t>
   </si>
   <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
   </si>
   <si>
     <t>63,42%</t>
   </si>
   <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
   </si>
   <si>
     <t>62,3%</t>
   </si>
   <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
   </si>
   <si>
     <t>36,58%</t>
   </si>
   <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
   </si>
   <si>
     <t>37,7%</t>
   </si>
   <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -314,595 +302,628 @@
     <t>Adultos según si han trabajado anteriormente en 2012 (Tasa respuesta: 54,79%)</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
   </si>
   <si>
     <t>65,64%</t>
   </si>
   <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
   </si>
   <si>
     <t>67,16%</t>
   </si>
   <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
   </si>
   <si>
     <t>34,36%</t>
   </si>
   <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
   </si>
   <si>
     <t>32,84%</t>
   </si>
   <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
   </si>
   <si>
     <t>74,66%</t>
   </si>
   <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
   </si>
   <si>
     <t>76,8%</t>
   </si>
   <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
   </si>
   <si>
     <t>25,34%</t>
   </si>
   <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
   </si>
   <si>
     <t>23,2%</t>
   </si>
   <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
   </si>
   <si>
     <t>75,02%</t>
   </si>
   <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
   </si>
   <si>
     <t>75,88%</t>
   </si>
   <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
   </si>
   <si>
     <t>24,98%</t>
   </si>
   <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
   </si>
   <si>
     <t>24,12%</t>
   </si>
   <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
   </si>
   <si>
     <t>76,99%</t>
   </si>
   <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
   </si>
   <si>
     <t>23,01%</t>
   </si>
   <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
   </si>
   <si>
     <t>Adultos según si han trabajado anteriormente en 2016 (Tasa respuesta: 50,09%)</t>
   </si>
   <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
     <t>67,34%</t>
   </si>
   <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
   </si>
   <si>
     <t>71,56%</t>
   </si>
   <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
   </si>
   <si>
     <t>32,66%</t>
   </si>
   <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
   </si>
   <si>
     <t>28,44%</t>
   </si>
   <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
   </si>
   <si>
     <t>72,55%</t>
   </si>
   <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
   </si>
   <si>
     <t>74,09%</t>
   </si>
   <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
   </si>
   <si>
     <t>27,45%</t>
   </si>
   <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
   </si>
   <si>
     <t>25,91%</t>
   </si>
   <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
   </si>
   <si>
     <t>80,89%</t>
   </si>
   <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
   </si>
   <si>
     <t>80,46%</t>
   </si>
   <si>
-    <t>85,51%</t>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
   </si>
   <si>
     <t>19,11%</t>
   </si>
   <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
   </si>
   <si>
     <t>19,54%</t>
   </si>
   <si>
-    <t>14,49%</t>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
   </si>
   <si>
     <t>73,19%</t>
   </si>
   <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
   </si>
   <si>
     <t>74,78%</t>
   </si>
   <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
   </si>
   <si>
     <t>26,81%</t>
   </si>
   <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
   </si>
   <si>
     <t>25,22%</t>
   </si>
   <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>Adultos según si han trabajado anteriormente en 2023 (Tasa respuesta: 3,91%)</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>Adultos según si han trabajado anteriormente en 2023 (Tasa respuesta: 34,06%)</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
   </si>
 </sst>
 </file>
@@ -1314,8 +1335,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E27B5F3-D599-475B-9876-7C76DA7C73B1}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21004A7A-AAB4-463D-86CC-28D7DBC401CC}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1432,88 +1453,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="D4" s="7">
+        <v>32340</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="I4" s="7">
+        <v>35955</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="N4" s="7">
+        <v>68295</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="D5" s="7">
+        <v>26386</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="I5" s="7">
+        <v>16716</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="N5" s="7">
+        <v>43102</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1522,147 +1555,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="D6" s="7">
+        <v>58726</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="I6" s="7">
+        <v>52671</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>167</v>
+      </c>
+      <c r="N6" s="7">
+        <v>111397</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>54</v>
+        <v>182</v>
       </c>
       <c r="D7" s="7">
-        <v>35955</v>
+        <v>122387</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>48</v>
+        <v>207</v>
       </c>
       <c r="I7" s="7">
-        <v>32340</v>
+        <v>136998</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>102</v>
+        <v>389</v>
       </c>
       <c r="N7" s="7">
-        <v>68295</v>
+        <v>259386</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="D8" s="7">
-        <v>16716</v>
+        <v>73309</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="I8" s="7">
-        <v>26386</v>
+        <v>86298</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>65</v>
+        <v>241</v>
       </c>
       <c r="N8" s="7">
-        <v>43102</v>
+        <v>159607</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1671,153 +1710,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>79</v>
+        <v>293</v>
       </c>
       <c r="D9" s="7">
-        <v>52671</v>
+        <v>195696</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>88</v>
+        <v>337</v>
       </c>
       <c r="I9" s="7">
-        <v>58726</v>
+        <v>223296</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>167</v>
+        <v>630</v>
       </c>
       <c r="N9" s="7">
-        <v>111397</v>
+        <v>418993</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>207</v>
+        <v>45</v>
       </c>
       <c r="D10" s="7">
-        <v>136998</v>
+        <v>29574</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>182</v>
+        <v>42</v>
       </c>
       <c r="I10" s="7">
-        <v>122387</v>
+        <v>28046</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>389</v>
+        <v>87</v>
       </c>
       <c r="N10" s="7">
-        <v>259386</v>
+        <v>57620</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="D11" s="7">
-        <v>86298</v>
+        <v>17492</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="7">
+        <v>19</v>
+      </c>
+      <c r="I11" s="7">
+        <v>12930</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="7">
         <v>44</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="7">
-        <v>111</v>
-      </c>
-      <c r="I11" s="7">
-        <v>73309</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M11" s="7">
-        <v>241</v>
-      </c>
       <c r="N11" s="7">
-        <v>159607</v>
+        <v>30422</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,153 +1865,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>337</v>
+        <v>70</v>
       </c>
       <c r="D12" s="7">
-        <v>223296</v>
+        <v>47066</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>293</v>
+        <v>61</v>
       </c>
       <c r="I12" s="7">
-        <v>195696</v>
+        <v>40976</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>630</v>
+        <v>131</v>
       </c>
       <c r="N12" s="7">
-        <v>418993</v>
+        <v>88042</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>42</v>
+        <v>275</v>
       </c>
       <c r="D13" s="7">
-        <v>28046</v>
+        <v>184301</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
-        <v>45</v>
+        <v>303</v>
       </c>
       <c r="I13" s="7">
-        <v>29574</v>
+        <v>200999</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
-        <v>87</v>
+        <v>578</v>
       </c>
       <c r="N13" s="7">
-        <v>57620</v>
+        <v>385300</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>19</v>
+        <v>176</v>
       </c>
       <c r="D14" s="7">
-        <v>12930</v>
+        <v>117187</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="I14" s="7">
-        <v>17492</v>
+        <v>115944</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
-        <v>44</v>
+        <v>350</v>
       </c>
       <c r="N14" s="7">
-        <v>30422</v>
+        <v>233131</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,216 +2020,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>61</v>
+        <v>451</v>
       </c>
       <c r="D15" s="7">
-        <v>40976</v>
+        <v>301488</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>70</v>
+        <v>477</v>
       </c>
       <c r="I15" s="7">
-        <v>47066</v>
+        <v>316943</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>131</v>
+        <v>928</v>
       </c>
       <c r="N15" s="7">
-        <v>88042</v>
+        <v>618431</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>303</v>
-      </c>
-      <c r="D16" s="7">
-        <v>200999</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" s="7">
-        <v>275</v>
-      </c>
-      <c r="I16" s="7">
-        <v>184301</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M16" s="7">
-        <v>578</v>
-      </c>
-      <c r="N16" s="7">
-        <v>385300</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="7">
-        <v>174</v>
-      </c>
-      <c r="D17" s="7">
-        <v>115944</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H17" s="7">
-        <v>176</v>
-      </c>
-      <c r="I17" s="7">
-        <v>117187</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="A16" t="s">
         <v>85</v>
       </c>
-      <c r="M17" s="7">
-        <v>350</v>
-      </c>
-      <c r="N17" s="7">
-        <v>233131</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>477</v>
-      </c>
-      <c r="D18" s="7">
-        <v>316943</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="7">
-        <v>451</v>
-      </c>
-      <c r="I18" s="7">
-        <v>301488</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" s="7">
-        <v>928</v>
-      </c>
-      <c r="N18" s="7">
-        <v>618431</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>89</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2203,8 +2086,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C263CC-EC48-4CE1-9CD1-0558CECE05C7}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF32AC9-28F0-4BF5-BF79-7AFD2D2FF3F2}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2220,7 +2103,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2321,96 +2204,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="D4" s="7">
-        <v>641</v>
+        <v>45104</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="7">
+        <v>59</v>
+      </c>
+      <c r="I4" s="7">
+        <v>41984</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="N4" s="7">
-        <v>641</v>
+        <v>87087</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>20605</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="I5" s="7">
+        <v>21982</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>42587</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2419,151 +2306,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>65709</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>90</v>
+      </c>
+      <c r="I6" s="7">
+        <v>63966</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>186</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>129674</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>59</v>
+        <v>298</v>
       </c>
       <c r="D7" s="7">
-        <v>41984</v>
+        <v>206436</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="H7" s="7">
-        <v>67</v>
+        <v>306</v>
       </c>
       <c r="I7" s="7">
-        <v>45104</v>
+        <v>214194</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
-        <v>126</v>
+        <v>604</v>
       </c>
       <c r="N7" s="7">
-        <v>87087</v>
+        <v>420629</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="D8" s="7">
-        <v>21982</v>
+        <v>54392</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="7">
         <v>106</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H8" s="7">
-        <v>29</v>
-      </c>
       <c r="I8" s="7">
-        <v>20605</v>
+        <v>72706</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
-        <v>60</v>
+        <v>183</v>
       </c>
       <c r="N8" s="7">
-        <v>42587</v>
+        <v>127098</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2572,153 +2461,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>90</v>
+        <v>375</v>
       </c>
       <c r="D9" s="7">
-        <v>63966</v>
+        <v>260828</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>96</v>
+        <v>412</v>
       </c>
       <c r="I9" s="7">
-        <v>65709</v>
+        <v>286900</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>186</v>
+        <v>787</v>
       </c>
       <c r="N9" s="7">
-        <v>129674</v>
+        <v>547727</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>306</v>
+        <v>69</v>
       </c>
       <c r="D10" s="7">
-        <v>214194</v>
+        <v>48017</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
-        <v>298</v>
+        <v>66</v>
       </c>
       <c r="I10" s="7">
-        <v>206436</v>
+        <v>47403</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
-        <v>604</v>
+        <v>135</v>
       </c>
       <c r="N10" s="7">
-        <v>420629</v>
+        <v>95420</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D11" s="7">
-        <v>72706</v>
+        <v>14544</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="I11" s="7">
-        <v>54392</v>
+        <v>15784</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="N11" s="7">
-        <v>127098</v>
+        <v>30327</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2727,153 +2616,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>412</v>
+        <v>88</v>
       </c>
       <c r="D12" s="7">
-        <v>286900</v>
+        <v>62561</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>375</v>
+        <v>88</v>
       </c>
       <c r="I12" s="7">
-        <v>260828</v>
+        <v>63187</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>787</v>
+        <v>176</v>
       </c>
       <c r="N12" s="7">
-        <v>547727</v>
+        <v>125747</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>66</v>
+        <v>434</v>
       </c>
       <c r="D13" s="7">
-        <v>47403</v>
+        <v>299556</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
-        <v>69</v>
+        <v>431</v>
       </c>
       <c r="I13" s="7">
-        <v>48017</v>
+        <v>303581</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M13" s="7">
-        <v>135</v>
+        <v>865</v>
       </c>
       <c r="N13" s="7">
-        <v>95420</v>
+        <v>603137</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="D14" s="7">
-        <v>15784</v>
+        <v>89541</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="H14" s="7">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="I14" s="7">
-        <v>14544</v>
+        <v>110471</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="N14" s="7">
-        <v>30327</v>
+        <v>200012</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,216 +2771,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>88</v>
+        <v>559</v>
       </c>
       <c r="D15" s="7">
-        <v>63187</v>
+        <v>389097</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>88</v>
+        <v>590</v>
       </c>
       <c r="I15" s="7">
-        <v>62561</v>
+        <v>414052</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>176</v>
+        <v>1149</v>
       </c>
       <c r="N15" s="7">
-        <v>125747</v>
+        <v>803149</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>432</v>
-      </c>
-      <c r="D16" s="7">
-        <v>304222</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H16" s="7">
-        <v>434</v>
-      </c>
-      <c r="I16" s="7">
-        <v>299556</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M16" s="7">
-        <v>866</v>
-      </c>
-      <c r="N16" s="7">
-        <v>603778</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="7">
-        <v>159</v>
-      </c>
-      <c r="D17" s="7">
-        <v>110471</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H17" s="7">
-        <v>125</v>
-      </c>
-      <c r="I17" s="7">
-        <v>89541</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M17" s="7">
-        <v>284</v>
-      </c>
-      <c r="N17" s="7">
-        <v>200012</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>591</v>
-      </c>
-      <c r="D18" s="7">
-        <v>414693</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="7">
-        <v>559</v>
-      </c>
-      <c r="I18" s="7">
-        <v>389097</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1150</v>
-      </c>
-      <c r="N18" s="7">
-        <v>803790</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>89</v>
+      <c r="A16" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3104,8 +2837,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62445BD9-16B1-49F9-AE7C-3DDAD7BD5C25}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B11492B-F48D-427C-8206-38F51EF3120D}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3121,7 +2854,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3222,88 +2955,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="D4" s="7">
+        <v>35406</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="I4" s="7">
+        <v>33099</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>104</v>
+      </c>
+      <c r="N4" s="7">
+        <v>68505</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="D5" s="7">
+        <v>11168</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="I5" s="7">
+        <v>16053</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="N5" s="7">
+        <v>27221</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3312,147 +3057,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="D6" s="7">
+        <v>46574</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>72</v>
+      </c>
+      <c r="I6" s="7">
+        <v>49152</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>142</v>
+      </c>
+      <c r="N6" s="7">
+        <v>95726</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>49</v>
+        <v>296</v>
       </c>
       <c r="D7" s="7">
-        <v>33099</v>
+        <v>194765</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
-        <v>55</v>
+        <v>265</v>
       </c>
       <c r="I7" s="7">
-        <v>35406</v>
+        <v>187918</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
-        <v>104</v>
+        <v>561</v>
       </c>
       <c r="N7" s="7">
-        <v>68505</v>
+        <v>382684</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="D8" s="7">
-        <v>16053</v>
+        <v>62705</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="I8" s="7">
-        <v>11168</v>
+        <v>71101</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
-        <v>38</v>
+        <v>193</v>
       </c>
       <c r="N8" s="7">
-        <v>27221</v>
+        <v>133805</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3461,153 +3212,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>72</v>
+        <v>389</v>
       </c>
       <c r="D9" s="7">
-        <v>49152</v>
+        <v>257470</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>70</v>
+        <v>365</v>
       </c>
       <c r="I9" s="7">
-        <v>46574</v>
+        <v>259019</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>142</v>
+        <v>754</v>
       </c>
       <c r="N9" s="7">
-        <v>95726</v>
+        <v>516489</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>265</v>
+        <v>69</v>
       </c>
       <c r="D10" s="7">
-        <v>187918</v>
+        <v>46642</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
-        <v>296</v>
+        <v>68</v>
       </c>
       <c r="I10" s="7">
-        <v>194765</v>
+        <v>47459</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
-        <v>561</v>
+        <v>137</v>
       </c>
       <c r="N10" s="7">
-        <v>382684</v>
+        <v>94100</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>194</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="D11" s="7">
-        <v>71101</v>
+        <v>11642</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="H11" s="7">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I11" s="7">
-        <v>62705</v>
+        <v>11213</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="M11" s="7">
-        <v>193</v>
+        <v>32</v>
       </c>
       <c r="N11" s="7">
-        <v>133805</v>
+        <v>22856</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>204</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3616,153 +3367,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>365</v>
+        <v>85</v>
       </c>
       <c r="D12" s="7">
-        <v>259019</v>
+        <v>58284</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>389</v>
+        <v>84</v>
       </c>
       <c r="I12" s="7">
-        <v>257470</v>
+        <v>58672</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>754</v>
+        <v>169</v>
       </c>
       <c r="N12" s="7">
-        <v>516489</v>
+        <v>116956</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>68</v>
+        <v>420</v>
       </c>
       <c r="D13" s="7">
-        <v>47459</v>
+        <v>276814</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="H13" s="7">
-        <v>69</v>
+        <v>382</v>
       </c>
       <c r="I13" s="7">
-        <v>46642</v>
+        <v>268476</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M13" s="7">
-        <v>137</v>
+        <v>802</v>
       </c>
       <c r="N13" s="7">
-        <v>94100</v>
+        <v>545289</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>58</v>
+        <v>217</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="D14" s="7">
-        <v>11213</v>
+        <v>85515</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="H14" s="7">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="I14" s="7">
-        <v>11642</v>
+        <v>98366</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
-        <v>32</v>
+        <v>263</v>
       </c>
       <c r="N14" s="7">
-        <v>22856</v>
+        <v>183882</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>66</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,216 +3522,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>84</v>
+        <v>544</v>
       </c>
       <c r="D15" s="7">
-        <v>58672</v>
+        <v>362329</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
+        <v>521</v>
+      </c>
+      <c r="I15" s="7">
+        <v>366842</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1065</v>
+      </c>
+      <c r="N15" s="7">
+        <v>729171</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>85</v>
       </c>
-      <c r="I15" s="7">
-        <v>58284</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" s="7">
-        <v>169</v>
-      </c>
-      <c r="N15" s="7">
-        <v>116956</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>382</v>
-      </c>
-      <c r="D16" s="7">
-        <v>268476</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H16" s="7">
-        <v>420</v>
-      </c>
-      <c r="I16" s="7">
-        <v>276814</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M16" s="7">
-        <v>802</v>
-      </c>
-      <c r="N16" s="7">
-        <v>545289</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="7">
-        <v>139</v>
-      </c>
-      <c r="D17" s="7">
-        <v>98366</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="H17" s="7">
-        <v>124</v>
-      </c>
-      <c r="I17" s="7">
-        <v>85515</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="M17" s="7">
-        <v>263</v>
-      </c>
-      <c r="N17" s="7">
-        <v>183882</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>521</v>
-      </c>
-      <c r="D18" s="7">
-        <v>366842</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="7">
-        <v>544</v>
-      </c>
-      <c r="I18" s="7">
-        <v>362329</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1065</v>
-      </c>
-      <c r="N18" s="7">
-        <v>729171</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>89</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3993,8 +3588,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93EA8761-018C-46C0-800A-5DEB2B43DEBA}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9AED6C-46B5-4F6F-8898-AA968CF216E0}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4010,7 +3605,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4111,88 +3706,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="D4" s="7">
+        <v>23353</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>229</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="I4" s="7">
+        <v>27664</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>62</v>
+      </c>
+      <c r="N4" s="7">
+        <v>51017</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>235</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>236</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D5" s="7">
+        <v>11119</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>240</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="I5" s="7">
+        <v>10251</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>243</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="N5" s="7">
+        <v>21370</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>244</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>245</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,147 +3808,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="D6" s="7">
+        <v>34472</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="I6" s="7">
+        <v>37915</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>92</v>
+      </c>
+      <c r="N6" s="7">
+        <v>72387</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>162</v>
       </c>
       <c r="D7" s="7">
-        <v>3427</v>
+        <v>137584</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>240</v>
+        <v>54</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>91</v>
+        <v>248</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>169</v>
       </c>
       <c r="I7" s="7">
-        <v>1435</v>
+        <v>131625</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>93</v>
+        <v>250</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>91</v>
+        <v>251</v>
       </c>
       <c r="M7" s="7">
-        <v>6</v>
+        <v>331</v>
       </c>
       <c r="N7" s="7">
-        <v>4862</v>
+        <v>269209</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>243</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>91</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="D8" s="7">
-        <v>352</v>
+        <v>63458</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>245</v>
+        <v>62</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>93</v>
+        <v>254</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="I8" s="7">
-        <v>1061</v>
+        <v>61969</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>93</v>
+        <v>257</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>91</v>
+        <v>258</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>166</v>
       </c>
       <c r="N8" s="7">
-        <v>1413</v>
+        <v>125427</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>248</v>
+        <v>140</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>93</v>
+        <v>259</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,153 +3963,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>5</v>
+        <v>252</v>
       </c>
       <c r="D9" s="7">
-        <v>3779</v>
+        <v>201042</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>4</v>
+        <v>245</v>
       </c>
       <c r="I9" s="7">
-        <v>2496</v>
+        <v>193594</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>9</v>
+        <v>497</v>
       </c>
       <c r="N9" s="7">
-        <v>6275</v>
+        <v>394636</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D10" s="7">
-        <v>9759</v>
+        <v>19520</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="H10" s="7">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I10" s="7">
-        <v>6811</v>
+        <v>20676</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="M10" s="7">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="N10" s="7">
-        <v>16570</v>
+        <v>40196</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>10678</v>
+        <v>2610</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="H11" s="7">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>16500</v>
+        <v>4240</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="M11" s="7">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="N11" s="7">
-        <v>27178</v>
+        <v>6850</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,149 +4118,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D12" s="7">
-        <v>20437</v>
+        <v>22130</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>32</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="7">
-        <v>34</v>
-      </c>
       <c r="I12" s="7">
-        <v>23311</v>
+        <v>24916</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="N12" s="7">
-        <v>43748</v>
+        <v>47046</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7"/>
+        <v>214</v>
+      </c>
+      <c r="D13" s="7">
+        <v>180457</v>
+      </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>280</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>281</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>236</v>
       </c>
       <c r="I13" s="7">
-        <v>798</v>
+        <v>179964</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>283</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>450</v>
       </c>
       <c r="N13" s="7">
-        <v>798</v>
+        <v>360421</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>93</v>
+        <v>285</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>91</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>110</v>
+      </c>
+      <c r="D14" s="7">
+        <v>77187</v>
+      </c>
       <c r="E14" s="7" t="s">
-        <v>11</v>
+        <v>287</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>288</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>11</v>
+        <v>289</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="I14" s="7">
-        <v>1850</v>
+        <v>76460</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>93</v>
+        <v>291</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>204</v>
       </c>
       <c r="N14" s="7">
-        <v>1850</v>
+        <v>153647</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>293</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>91</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4656,214 +4273,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7"/>
+        <v>324</v>
+      </c>
+      <c r="D15" s="7">
+        <v>257644</v>
+      </c>
       <c r="E15" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>4</v>
+        <v>330</v>
       </c>
       <c r="I15" s="7">
-        <v>2648</v>
+        <v>256424</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>4</v>
+        <v>654</v>
       </c>
       <c r="N15" s="7">
-        <v>2648</v>
+        <v>514068</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>17</v>
-      </c>
-      <c r="D16" s="7">
-        <v>13186</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="H16" s="7">
-        <v>14</v>
-      </c>
-      <c r="I16" s="7">
-        <v>9043</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="M16" s="7">
-        <v>31</v>
-      </c>
-      <c r="N16" s="7">
-        <v>22230</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="7">
-        <v>16</v>
-      </c>
-      <c r="D17" s="7">
-        <v>11030</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H17" s="7">
-        <v>28</v>
-      </c>
-      <c r="I17" s="7">
-        <v>19412</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="M17" s="7">
-        <v>44</v>
-      </c>
-      <c r="N17" s="7">
-        <v>30441</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>33</v>
-      </c>
-      <c r="D18" s="7">
-        <v>24216</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="7">
-        <v>42</v>
-      </c>
-      <c r="I18" s="7">
-        <v>28455</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" s="7">
-        <v>75</v>
-      </c>
-      <c r="N18" s="7">
-        <v>52671</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>89</v>
+      <c r="A16" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
